--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>date</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>2018/08/27</t>
+  </si>
+  <si>
+    <t>2018/08/28</t>
+  </si>
+  <si>
+    <t>2018/08/29</t>
   </si>
 </sst>
 </file>
@@ -472,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -991,6 +997,52 @@
         <v>90.59999999999999</v>
       </c>
     </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n">
+        <v>620436.66</v>
+      </c>
+      <c r="C23" t="n">
+        <v>230.67</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1051123.53</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7135.28</v>
+      </c>
+      <c r="F23" t="n">
+        <v>185140.41</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="n">
+        <v>620882.9399999999</v>
+      </c>
+      <c r="C24" t="n">
+        <v>234.99</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1051718.3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F24" t="n">
+        <v>185144.23</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bernie\Personal\Investment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7755" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="raw_asset" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="raw_asset" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">raw_asset!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_asset!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>date</t>
   </si>
@@ -106,33 +112,74 @@
   </si>
   <si>
     <t>2018/08/29</t>
+  </si>
+  <si>
+    <t>2018/08/30</t>
+  </si>
+  <si>
+    <t>2018/08/31</t>
+  </si>
+  <si>
+    <t>2018/09/03</t>
+  </si>
+  <si>
+    <t>2018/09/04</t>
+  </si>
+  <si>
+    <t>2018/09/05</t>
+  </si>
+  <si>
+    <t>2018/09/06</t>
+  </si>
+  <si>
+    <t>2018/09/07</t>
+  </si>
+  <si>
+    <t>2018/09/12</t>
+  </si>
+  <si>
+    <t>2018/09/13</t>
+  </si>
+  <si>
+    <t>2018/09/14</t>
+  </si>
+  <si>
+    <t>2018/09/15</t>
+  </si>
+  <si>
+    <t>2018/09/17</t>
+  </si>
+  <si>
+    <t>2018/09/18</t>
+  </si>
+  <si>
+    <t>2018/09/19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -172,20 +219,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -473,25 +529,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="10.7109375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="10.5703125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="5" width="16"/>
+    <col min="1" max="1" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="15.75" r="1" s="1" spans="1:7" thickBot="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -514,537 +566,859 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>617996.26</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>380.65</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1044628.27</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>608.28</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>184053.83</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>618030.4</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>380.69</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1044745.66</v>
       </c>
-      <c r="E3" t="n">
-        <v>1131.59</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>1131.5899999999999</v>
+      </c>
+      <c r="F3">
         <v>184143.7</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="n">
-        <v>618043.83</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4">
+        <v>618043.82999999996</v>
+      </c>
+      <c r="C4">
         <v>380.7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1045169.19</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>844.48</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>184279.83</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>618047.03</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>400.13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1045268.35</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>214.94</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>184392.8</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>29.44</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>618067.96</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>400.3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1045338.14</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>243.79</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>184433.32</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>29.44</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="n">
-        <v>618108.8</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>618108.80000000005</v>
+      </c>
+      <c r="C7">
         <v>461.25</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1045469.03</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>256.42</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>184635.37</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>29.44</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>618121.27</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>461.32</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1045537.53</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>370.66</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>184652.16</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>29.44</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>618207.53</v>
       </c>
-      <c r="C9" t="n">
-        <v>841.1900000000001</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>841.19</v>
+      </c>
+      <c r="D9">
         <v>1045722.81</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>815.55</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>184705.02</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>29.44</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>618459.99</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>103.23</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>1046141.68</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>164.04</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>184725.88</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>163.1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>618583.9</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>126.45</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>1046875.66</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>1352.53</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>184594.06</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>13.04</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>618583.9</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>126.45</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>1047006.82</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>131.16</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>184630.8</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>13.04</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="n">
-        <v>618613.8</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13">
+        <v>618613.80000000005</v>
+      </c>
+      <c r="C13">
         <v>126.47</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>1047102.51</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>194.26</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>184663.89</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>13.04</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>618639.49</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>126.8</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>1047159.67</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>208.07</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>184669.88</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>13.04</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="n">
-        <v>618656.5600000001</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15">
+        <v>618656.56000000006</v>
+      </c>
+      <c r="C15">
         <v>126.9</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>1047181.24</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>208.97</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>184673.9</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>13.04</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>618729.21</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>224.23</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>1047233.89</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>242.46</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>184684.52</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>13.04</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>618861.88</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>481.85</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>1047682.97</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>3554.19</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>184821.26</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>13.04</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="n">
-        <v>618883.17</v>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18">
+        <v>618883.17000000004</v>
+      </c>
+      <c r="C18">
         <v>482.01</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>1048107.42</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>332.1</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>184946.93</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>13.04</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>619040.47</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>484.21</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>1048367.94</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>468.88</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>184962.62</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>13.04</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>619226.5</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>1042.96</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>1048633.74</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>1167.77</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>184984.8</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>15.62</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>619594.09</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>118.52</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>1048936.83</v>
       </c>
-      <c r="E21" t="n">
-        <v>2062.2</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E21">
+        <v>2062.1999999999998</v>
+      </c>
+      <c r="F21">
         <v>184989.44</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>15.62</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>620127.16</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>229.37</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>1050271.72</v>
       </c>
-      <c r="E22" t="n">
-        <v>533.08</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E22">
+        <v>533.08000000000004</v>
+      </c>
+      <c r="F22">
         <v>185091.86</v>
       </c>
-      <c r="G22" t="n">
-        <v>90.59999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>620436.66</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>230.67</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>1051123.53</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>7135.28</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>185140.41</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="n">
-        <v>620882.9399999999</v>
-      </c>
-      <c r="C24" t="n">
+      <c r="B24">
+        <v>620882.93999999994</v>
+      </c>
+      <c r="C24">
         <v>234.99</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>1051718.3</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>0.03</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>185144.23</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>621186.81999999995</v>
+      </c>
+      <c r="C25">
+        <v>238.48</v>
+      </c>
+      <c r="D25">
+        <v>1052153.03</v>
+      </c>
+      <c r="E25">
+        <v>96.9</v>
+      </c>
+      <c r="F25">
+        <v>185150.66</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>621305.89</v>
+      </c>
+      <c r="C26">
+        <v>245.22</v>
+      </c>
+      <c r="D26">
+        <v>1052330.8500000001</v>
+      </c>
+      <c r="E26">
+        <v>168.66</v>
+      </c>
+      <c r="F26">
+        <v>185168.23</v>
+      </c>
+      <c r="G26">
+        <v>19.440000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>621628.57999999996</v>
+      </c>
+      <c r="C27">
+        <v>504.62</v>
+      </c>
+      <c r="D27">
+        <v>1052730.3899999999</v>
+      </c>
+      <c r="E27">
+        <v>499.93</v>
+      </c>
+      <c r="F27">
+        <v>185285.29</v>
+      </c>
+      <c r="G27">
+        <v>19.440000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>621156.85</v>
+      </c>
+      <c r="C28">
+        <v>0.04</v>
+      </c>
+      <c r="D28">
+        <v>1052835.26</v>
+      </c>
+      <c r="E28">
+        <v>896.31</v>
+      </c>
+      <c r="F28">
+        <v>185418.49</v>
+      </c>
+      <c r="G28">
+        <v>19.440000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>621171.76</v>
+      </c>
+      <c r="C29">
+        <v>19.5</v>
+      </c>
+      <c r="D29">
+        <v>1053145.28</v>
+      </c>
+      <c r="E29">
+        <v>272.81</v>
+      </c>
+      <c r="F29">
+        <v>185527.75</v>
+      </c>
+      <c r="G29">
+        <v>19.440000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>621190.99</v>
+      </c>
+      <c r="C30">
+        <v>19.66</v>
+      </c>
+      <c r="D30">
+        <v>1053178.07</v>
+      </c>
+      <c r="E30">
+        <v>301.52</v>
+      </c>
+      <c r="F30">
+        <v>185565.73</v>
+      </c>
+      <c r="G30">
+        <v>19.440000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>621231</v>
+      </c>
+      <c r="C31">
+        <v>80.55</v>
+      </c>
+      <c r="D31">
+        <v>1053302</v>
+      </c>
+      <c r="E31">
+        <v>313.23</v>
+      </c>
+      <c r="F31">
+        <v>185760.02</v>
+      </c>
+      <c r="G31">
+        <v>19.440000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>621478</v>
+      </c>
+      <c r="C32">
+        <v>316.33999999999997</v>
+      </c>
+      <c r="D32">
+        <v>1054557.68</v>
+      </c>
+      <c r="E32">
+        <v>407.08</v>
+      </c>
+      <c r="F32">
+        <v>185890.78</v>
+      </c>
+      <c r="G32">
+        <v>166.14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>621581.11</v>
+      </c>
+      <c r="C33">
+        <v>338.67</v>
+      </c>
+      <c r="D33">
+        <v>1054880.33</v>
+      </c>
+      <c r="E33">
+        <v>1045.0999999999999</v>
+      </c>
+      <c r="F33">
+        <v>185771.91</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>621608.48</v>
+      </c>
+      <c r="C34">
+        <v>338.69</v>
+      </c>
+      <c r="D34">
+        <v>1054962.77</v>
+      </c>
+      <c r="E34">
+        <v>1100.73</v>
+      </c>
+      <c r="F34">
+        <v>185806.12</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>621740.88</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1055129.29</v>
+      </c>
+      <c r="E35">
+        <v>137.93</v>
+      </c>
+      <c r="F35">
+        <v>185809.8</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>621814.53</v>
+      </c>
+      <c r="C36">
+        <v>97.48</v>
+      </c>
+      <c r="D36">
+        <v>1055195.25</v>
+      </c>
+      <c r="E36">
+        <v>171.84</v>
+      </c>
+      <c r="F36">
+        <v>185831.82</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>621858.25</v>
+      </c>
+      <c r="C37">
+        <v>192.74</v>
+      </c>
+      <c r="D37">
+        <v>1055356.6299999999</v>
+      </c>
+      <c r="E37">
+        <v>1319.4</v>
+      </c>
+      <c r="F37">
+        <v>185857.38</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>621891.99</v>
+      </c>
+      <c r="C38">
+        <v>192.74</v>
+      </c>
+      <c r="D38">
+        <v>1055810.58</v>
+      </c>
+      <c r="E38">
+        <v>251.21</v>
+      </c>
+      <c r="F38" s="5">
+        <v>185863.91</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bernie\Personal\Investment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7755" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="raw_asset" sheetId="1" r:id="rId1"/>
+    <sheet name="raw_asset" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">raw_asset!$A$1:$G$1</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">raw_asset!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="0" calcOnSave="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>date</t>
   </si>
@@ -154,32 +148,72 @@
   </si>
   <si>
     <t>2018/09/19</t>
+  </si>
+  <si>
+    <t>2018/09/20</t>
+  </si>
+  <si>
+    <t>2018/09/21</t>
+  </si>
+  <si>
+    <t>2018/09/26</t>
+  </si>
+  <si>
+    <t>2018/09/27</t>
+  </si>
+  <si>
+    <t>2018/09/28</t>
+  </si>
+  <si>
+    <t>2018/09/29</t>
+  </si>
+  <si>
+    <t>2018/09/30</t>
+  </si>
+  <si>
+    <t>2018/10/07</t>
+  </si>
+  <si>
+    <t>2018/10/09</t>
+  </si>
+  <si>
+    <t>2018/10/10</t>
+  </si>
+  <si>
+    <t>2018/10/11</t>
+  </si>
+  <si>
+    <t>2018/10/12</t>
+  </si>
+  <si>
+    <t>2018/10/15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -219,29 +253,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -529,21 +554,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="10.7109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="10.5703125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="5" width="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="15.75" r="1" s="1" spans="1:7" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -566,859 +595,1158 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>617996.26</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>380.65</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>1044628.27</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>608.28</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>184053.83</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>618030.4</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>380.69</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>1044745.66</v>
       </c>
-      <c r="E3">
-        <v>1131.5899999999999</v>
-      </c>
-      <c r="F3">
+      <c r="E3" t="n">
+        <v>1131.59</v>
+      </c>
+      <c r="F3" t="n">
         <v>184143.7</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>618043.82999999996</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="n">
+        <v>618043.83</v>
+      </c>
+      <c r="C4" t="n">
         <v>380.7</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>1045169.19</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>844.48</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>184279.83</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>618047.03</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>400.13</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>1045268.35</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>214.94</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>184392.8</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>29.44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>618067.96</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>400.3</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>1045338.14</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>243.79</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>184433.32</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>29.44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>618108.80000000005</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="n">
+        <v>618108.8</v>
+      </c>
+      <c r="C7" t="n">
         <v>461.25</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>1045469.03</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>256.42</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>184635.37</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>29.44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>618121.27</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>461.32</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>1045537.53</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>370.66</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>184652.16</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>29.44</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>618207.53</v>
       </c>
-      <c r="C9">
-        <v>841.19</v>
-      </c>
-      <c r="D9">
+      <c r="C9" t="n">
+        <v>841.1900000000001</v>
+      </c>
+      <c r="D9" t="n">
         <v>1045722.81</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>815.55</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>184705.02</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>29.44</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>618459.99</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>103.23</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>1046141.68</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>164.04</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>184725.88</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>163.1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>618583.9</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>126.45</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>1046875.66</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>1352.53</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>184594.06</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>13.04</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>618583.9</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>126.45</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>1047006.82</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>131.16</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>184630.8</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>13.04</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
-        <v>618613.80000000005</v>
-      </c>
-      <c r="C13">
+      <c r="B13" t="n">
+        <v>618613.8</v>
+      </c>
+      <c r="C13" t="n">
         <v>126.47</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>1047102.51</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>194.26</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>184663.89</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>13.04</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>618639.49</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>126.8</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>1047159.67</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>208.07</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>184669.88</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>13.04</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>618656.56000000006</v>
-      </c>
-      <c r="C15">
+      <c r="B15" t="n">
+        <v>618656.5600000001</v>
+      </c>
+      <c r="C15" t="n">
         <v>126.9</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>1047181.24</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>208.97</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>184673.9</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>13.04</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>618729.21</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>224.23</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>1047233.89</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>242.46</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>184684.52</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>13.04</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>618861.88</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>481.85</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>1047682.97</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>3554.19</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>184821.26</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>13.04</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
-        <v>618883.17000000004</v>
-      </c>
-      <c r="C18">
+      <c r="B18" t="n">
+        <v>618883.17</v>
+      </c>
+      <c r="C18" t="n">
         <v>482.01</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>1048107.42</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>332.1</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>184946.93</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>13.04</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>619040.47</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>484.21</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>1048367.94</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>468.88</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>184962.62</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>13.04</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>619226.5</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>1042.96</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>1048633.74</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>1167.77</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>184984.8</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>15.62</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>619594.09</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>118.52</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>1048936.83</v>
       </c>
-      <c r="E21">
-        <v>2062.1999999999998</v>
-      </c>
-      <c r="F21">
+      <c r="E21" t="n">
+        <v>2062.2</v>
+      </c>
+      <c r="F21" t="n">
         <v>184989.44</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>15.62</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>620127.16</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>229.37</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>1050271.72</v>
       </c>
-      <c r="E22">
-        <v>533.08000000000004</v>
-      </c>
-      <c r="F22">
+      <c r="E22" t="n">
+        <v>533.08</v>
+      </c>
+      <c r="F22" t="n">
         <v>185091.86</v>
       </c>
-      <c r="G22">
-        <v>90.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" t="n">
+        <v>90.59999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>620436.66</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>230.67</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>1051123.53</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>7135.28</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>185140.41</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24">
-        <v>620882.93999999994</v>
-      </c>
-      <c r="C24">
+      <c r="B24" t="n">
+        <v>620882.9399999999</v>
+      </c>
+      <c r="C24" t="n">
         <v>234.99</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>1051718.3</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>0.03</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>185144.23</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25">
-        <v>621186.81999999995</v>
-      </c>
-      <c r="C25">
+      <c r="B25" t="n">
+        <v>621186.8199999999</v>
+      </c>
+      <c r="C25" t="n">
         <v>238.48</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>1052153.03</v>
       </c>
-      <c r="E25">
-        <v>96.9</v>
-      </c>
-      <c r="F25">
+      <c r="E25" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F25" t="n">
         <v>185150.66</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>621305.89</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>245.22</v>
       </c>
-      <c r="D26">
-        <v>1052330.8500000001</v>
-      </c>
-      <c r="E26">
+      <c r="D26" t="n">
+        <v>1052330.85</v>
+      </c>
+      <c r="E26" t="n">
         <v>168.66</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>185168.23</v>
       </c>
-      <c r="G26">
-        <v>19.440000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" t="n">
+        <v>19.44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27">
-        <v>621628.57999999996</v>
-      </c>
-      <c r="C27">
+      <c r="B27" t="n">
+        <v>621628.58</v>
+      </c>
+      <c r="C27" t="n">
         <v>504.62</v>
       </c>
-      <c r="D27">
-        <v>1052730.3899999999</v>
-      </c>
-      <c r="E27">
+      <c r="D27" t="n">
+        <v>1052730.39</v>
+      </c>
+      <c r="E27" t="n">
         <v>499.93</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>185285.29</v>
       </c>
-      <c r="G27">
-        <v>19.440000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" t="n">
+        <v>19.44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>621156.85</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>0.04</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>1052835.26</v>
       </c>
-      <c r="E28">
-        <v>896.31</v>
-      </c>
-      <c r="F28">
+      <c r="E28" t="n">
+        <v>896.3099999999999</v>
+      </c>
+      <c r="F28" t="n">
         <v>185418.49</v>
       </c>
-      <c r="G28">
-        <v>19.440000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" t="n">
+        <v>19.44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>621171.76</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>19.5</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>1053145.28</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>272.81</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>185527.75</v>
       </c>
-      <c r="G29">
-        <v>19.440000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" t="n">
+        <v>19.44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>621190.99</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>19.66</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>1053178.07</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>301.52</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>185565.73</v>
       </c>
-      <c r="G30">
-        <v>19.440000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" t="n">
+        <v>19.44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>621231</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>80.55</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>1053302</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>313.23</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>185760.02</v>
       </c>
-      <c r="G31">
-        <v>19.440000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" t="n">
+        <v>19.44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>621478</v>
       </c>
-      <c r="C32">
-        <v>316.33999999999997</v>
-      </c>
-      <c r="D32">
+      <c r="C32" t="n">
+        <v>316.34</v>
+      </c>
+      <c r="D32" t="n">
         <v>1054557.68</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>407.08</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>185890.78</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="n">
         <v>166.14</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>621581.11</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>338.67</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>1054880.33</v>
       </c>
-      <c r="E33">
-        <v>1045.0999999999999</v>
-      </c>
-      <c r="F33">
+      <c r="E33" t="n">
+        <v>1045.1</v>
+      </c>
+      <c r="F33" t="n">
         <v>185771.91</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>621608.48</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>338.69</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>1054962.77</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>1100.73</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>185806.12</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>621740.88</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>1055129.29</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>137.93</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>185809.8</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>621814.53</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>97.48</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>1055195.25</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>171.84</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>185831.82</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>621858.25</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>192.74</v>
       </c>
-      <c r="D37">
-        <v>1055356.6299999999</v>
-      </c>
-      <c r="E37">
+      <c r="D37" t="n">
+        <v>1055356.63</v>
+      </c>
+      <c r="E37" t="n">
         <v>1319.4</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
         <v>185857.38</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>621891.99</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>192.74</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>1055810.58</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>251.21</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" t="n">
         <v>185863.91</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="n">
+        <v>622038.65</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4893.27</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1055857.58</v>
+      </c>
+      <c r="E39" t="n">
+        <v>483.5</v>
+      </c>
+      <c r="F39" t="n">
+        <v>185863.91</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="n">
+        <v>622406.8199999999</v>
+      </c>
+      <c r="C40" t="n">
+        <v>149.26</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1055946.49</v>
+      </c>
+      <c r="E40" t="n">
+        <v>795.27</v>
+      </c>
+      <c r="F40" t="n">
+        <v>185863.91</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="n">
+        <v>623254.41</v>
+      </c>
+      <c r="C41" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1057117.11</v>
+      </c>
+      <c r="E41" t="n">
+        <v>143.09</v>
+      </c>
+      <c r="F41" t="n">
+        <v>185863.91</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="n">
+        <v>623581.5699999999</v>
+      </c>
+      <c r="C42" t="n">
+        <v>190.01</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1057453.61</v>
+      </c>
+      <c r="E42" t="n">
+        <v>361.91</v>
+      </c>
+      <c r="F42" t="n">
+        <v>185863.91</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="n">
+        <v>623880.97</v>
+      </c>
+      <c r="C43" t="n">
+        <v>191.27</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1058218.74</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1161.89</v>
+      </c>
+      <c r="F43" t="n">
+        <v>185863.91</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="n">
+        <v>624135.01</v>
+      </c>
+      <c r="C44" t="n">
+        <v>195.28</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1058789.16</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2137.47</v>
+      </c>
+      <c r="F44" t="n">
+        <v>185863.91</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="n">
+        <v>624424.16</v>
+      </c>
+      <c r="C45" t="n">
+        <v>195.29</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1061517.39</v>
+      </c>
+      <c r="E45" t="n">
+        <v>64.37</v>
+      </c>
+      <c r="F45" t="n">
+        <v>186298.01</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="n">
+        <v>624978.52</v>
+      </c>
+      <c r="C46" t="n">
+        <v>541.39</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1062445.41</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1585.89</v>
+      </c>
+      <c r="F46" t="n">
+        <v>186875.56</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="n">
+        <v>625080.29</v>
+      </c>
+      <c r="C47" t="n">
+        <v>544.87</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1062687.98</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F47" t="n">
+        <v>186944.71</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="n">
+        <v>625231.83</v>
+      </c>
+      <c r="C48" t="n">
+        <v>776.24</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1062911.77</v>
+      </c>
+      <c r="E48" t="n">
+        <v>573.49</v>
+      </c>
+      <c r="F48" t="n">
+        <v>186971.08</v>
+      </c>
+      <c r="G48" t="n">
+        <v>133.66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="n">
+        <v>625242.67</v>
+      </c>
+      <c r="C49" t="n">
+        <v>777.0599999999999</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1063024.17</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1800.25</v>
+      </c>
+      <c r="F49" t="n">
+        <v>186986.82</v>
+      </c>
+      <c r="G49" t="n">
+        <v>146.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="n">
+        <v>625248.0600000001</v>
+      </c>
+      <c r="C50" t="n">
+        <v>777.0599999999999</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1063135.97</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2276.32</v>
+      </c>
+      <c r="F50" t="n">
+        <v>187008.24</v>
+      </c>
+      <c r="G50" t="n">
+        <v>146.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="n">
+        <v>625388.8100000001</v>
+      </c>
+      <c r="C51" t="n">
+        <v>799.7</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1063590.01</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1451.73</v>
+      </c>
+      <c r="F51" t="n">
+        <v>186944.29</v>
+      </c>
+      <c r="G51" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>date</t>
   </si>
@@ -187,6 +187,27 @@
   </si>
   <si>
     <t>2018/10/15</t>
+  </si>
+  <si>
+    <t>2018/10/16</t>
+  </si>
+  <si>
+    <t>2018/10/17</t>
+  </si>
+  <si>
+    <t>2018/10/18</t>
+  </si>
+  <si>
+    <t>2018/10/19</t>
+  </si>
+  <si>
+    <t>2018/10/22</t>
+  </si>
+  <si>
+    <t>2018/10/23</t>
+  </si>
+  <si>
+    <t>2018/10/24</t>
   </si>
 </sst>
 </file>
@@ -559,7 +580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F47" sqref="F47"/>
@@ -1745,6 +1766,167 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="n">
+        <v>625727.14</v>
+      </c>
+      <c r="C52" t="n">
+        <v>275.68</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1064109.22</v>
+      </c>
+      <c r="E52" t="n">
+        <v>261.6</v>
+      </c>
+      <c r="F52" t="n">
+        <v>186948.63</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="n">
+        <v>626977.72</v>
+      </c>
+      <c r="C53" t="n">
+        <v>37.63</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1064184.88</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2661.84</v>
+      </c>
+      <c r="F53" t="n">
+        <v>186964.31</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="n">
+        <v>627007.0699999999</v>
+      </c>
+      <c r="C54" t="n">
+        <v>132.89</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1064334.54</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F54" t="n">
+        <v>186986.83</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="n">
+        <v>627037.6</v>
+      </c>
+      <c r="C55" t="n">
+        <v>132.89</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1064520.54</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1932.72</v>
+      </c>
+      <c r="F55" t="n">
+        <v>186993.23</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="n">
+        <v>627230.4399999999</v>
+      </c>
+      <c r="C56" t="n">
+        <v>297.02</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1064998.44</v>
+      </c>
+      <c r="E56" t="n">
+        <v>478.39</v>
+      </c>
+      <c r="F56" t="n">
+        <v>187246.27</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="n">
+        <v>627405.97</v>
+      </c>
+      <c r="C57" t="n">
+        <v>856.63</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1065232.84</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1060.12</v>
+      </c>
+      <c r="F57" t="n">
+        <v>187261</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="n">
+        <v>627715.0600000001</v>
+      </c>
+      <c r="C58" t="n">
+        <v>46.24</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1066291.12</v>
+      </c>
+      <c r="E58" t="n">
+        <v>894.26</v>
+      </c>
+      <c r="F58" t="n">
+        <v>187268.11</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/Asset.xlsx
+++ b/Asset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>date</t>
   </si>
@@ -208,6 +208,138 @@
   </si>
   <si>
     <t>2018/10/24</t>
+  </si>
+  <si>
+    <t>2018/10/25</t>
+  </si>
+  <si>
+    <t>2018/10/26</t>
+  </si>
+  <si>
+    <t>2018/10/29</t>
+  </si>
+  <si>
+    <t>2018/10/30</t>
+  </si>
+  <si>
+    <t>2018/10/31</t>
+  </si>
+  <si>
+    <t>2018/11/02</t>
+  </si>
+  <si>
+    <t>2018/11/12</t>
+  </si>
+  <si>
+    <t>2018/11/13</t>
+  </si>
+  <si>
+    <t>2018/11/14</t>
+  </si>
+  <si>
+    <t>2018/11/15</t>
+  </si>
+  <si>
+    <t>2018/11/16</t>
+  </si>
+  <si>
+    <t>2018/11/19</t>
+  </si>
+  <si>
+    <t>2018/11/20</t>
+  </si>
+  <si>
+    <t>2018/11/22</t>
+  </si>
+  <si>
+    <t>2018/11/23</t>
+  </si>
+  <si>
+    <t>2018/11/26</t>
+  </si>
+  <si>
+    <t>2018/11/28</t>
+  </si>
+  <si>
+    <t>2018/11/29</t>
+  </si>
+  <si>
+    <t>2018/11/30</t>
+  </si>
+  <si>
+    <t>2018/12/03</t>
+  </si>
+  <si>
+    <t>2018/12/04</t>
+  </si>
+  <si>
+    <t>2018/12/05</t>
+  </si>
+  <si>
+    <t>2018/12/06</t>
+  </si>
+  <si>
+    <t>2018/12/10</t>
+  </si>
+  <si>
+    <t>2018/12/11</t>
+  </si>
+  <si>
+    <t>2018/12/12</t>
+  </si>
+  <si>
+    <t>2018/12/13</t>
+  </si>
+  <si>
+    <t>2018/12/14</t>
+  </si>
+  <si>
+    <t>2018/12/18</t>
+  </si>
+  <si>
+    <t>2018/12/19</t>
+  </si>
+  <si>
+    <t>2018/12/20</t>
+  </si>
+  <si>
+    <t>2018/12/21</t>
+  </si>
+  <si>
+    <t>2018/12/24</t>
+  </si>
+  <si>
+    <t>2018/12/26</t>
+  </si>
+  <si>
+    <t>2018/12/27</t>
+  </si>
+  <si>
+    <t>2018/12/28</t>
+  </si>
+  <si>
+    <t>2019/01/02</t>
+  </si>
+  <si>
+    <t>2019/01/04</t>
+  </si>
+  <si>
+    <t>2019/01/05</t>
+  </si>
+  <si>
+    <t>2019/01/07</t>
+  </si>
+  <si>
+    <t>2019/01/08</t>
+  </si>
+  <si>
+    <t>2019/01/09</t>
+  </si>
+  <si>
+    <t>2019/01/10</t>
+  </si>
+  <si>
+    <t>2019/01/11</t>
   </si>
 </sst>
 </file>
@@ -580,7 +712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F47" sqref="F47"/>
@@ -1927,6 +2059,1018 @@
         <v>2.58</v>
       </c>
     </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="n">
+        <v>627834.14</v>
+      </c>
+      <c r="C59" t="n">
+        <v>48.31</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1066418.91</v>
+      </c>
+      <c r="E59" t="n">
+        <v>921.88</v>
+      </c>
+      <c r="F59" t="n">
+        <v>187294.22</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="n">
+        <v>627932.6899999999</v>
+      </c>
+      <c r="C60" t="n">
+        <v>50.11</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1066526.39</v>
+      </c>
+      <c r="E60" t="n">
+        <v>933.08</v>
+      </c>
+      <c r="F60" t="n">
+        <v>187334.71</v>
+      </c>
+      <c r="G60" t="n">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="n">
+        <v>628823.37</v>
+      </c>
+      <c r="C61" t="n">
+        <v>157.61</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1068212.11</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1758.03</v>
+      </c>
+      <c r="F61" t="n">
+        <v>187488.89</v>
+      </c>
+      <c r="G61" t="n">
+        <v>185.36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" t="n">
+        <v>638986.78</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1068592.49</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F62" t="n">
+        <v>187332.26</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" t="n">
+        <v>639170.96</v>
+      </c>
+      <c r="C63" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1068795.02</v>
+      </c>
+      <c r="E63" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>187347.65</v>
+      </c>
+      <c r="G63" t="n">
+        <v>19.44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="n">
+        <v>639324.48</v>
+      </c>
+      <c r="C64" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1069047.1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>119.34</v>
+      </c>
+      <c r="F64" t="n">
+        <v>187391.62</v>
+      </c>
+      <c r="G64" t="n">
+        <v>19.44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="n">
+        <v>639485.17</v>
+      </c>
+      <c r="C65" t="n">
+        <v>313.47</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1070397.09</v>
+      </c>
+      <c r="E65" t="n">
+        <v>13167.28</v>
+      </c>
+      <c r="F65" t="n">
+        <v>188063.37</v>
+      </c>
+      <c r="G65" t="n">
+        <v>166.14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="n">
+        <v>639562.25</v>
+      </c>
+      <c r="C66" t="n">
+        <v>335.76</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1070639.83</v>
+      </c>
+      <c r="E66" t="n">
+        <v>13773.18</v>
+      </c>
+      <c r="F66" t="n">
+        <v>187949.03</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="n">
+        <v>639579.6899999999</v>
+      </c>
+      <c r="C67" t="n">
+        <v>335.78</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1007414.44</v>
+      </c>
+      <c r="E67" t="n">
+        <v>51.78</v>
+      </c>
+      <c r="F67" t="n">
+        <v>187983.81</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" t="n">
+        <v>639586.62</v>
+      </c>
+      <c r="C68" t="n">
+        <v>336.05</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1007426.33</v>
+      </c>
+      <c r="E68" t="n">
+        <v>53.64</v>
+      </c>
+      <c r="F68" t="n">
+        <v>187995.57</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" t="n">
+        <v>639596.35</v>
+      </c>
+      <c r="C69" t="n">
+        <v>336.13</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1007580.73</v>
+      </c>
+      <c r="E69" t="n">
+        <v>79.77</v>
+      </c>
+      <c r="F69" t="n">
+        <v>187998.83</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="n">
+        <v>519964.17</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1007913.12</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4278.73</v>
+      </c>
+      <c r="F70" t="n">
+        <v>188059.09</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" t="n">
+        <v>519995.58</v>
+      </c>
+      <c r="C71" t="n">
+        <v>162.25</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1007952.57</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4510.83</v>
+      </c>
+      <c r="F71" t="n">
+        <v>188150.21</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="n">
+        <v>520102.44</v>
+      </c>
+      <c r="C72" t="n">
+        <v>175.93</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1008339.71</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4863.69</v>
+      </c>
+      <c r="F72" t="n">
+        <v>188314.93</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" t="n">
+        <v>520248.1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>735.97</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1008589.2</v>
+      </c>
+      <c r="E73" t="n">
+        <v>5450.36</v>
+      </c>
+      <c r="F73" t="n">
+        <v>188329.6</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="n">
+        <v>460061.85</v>
+      </c>
+      <c r="C74" t="n">
+        <v>54.79</v>
+      </c>
+      <c r="D74" t="n">
+        <v>944259.02</v>
+      </c>
+      <c r="E74" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F74" t="n">
+        <v>188435.65</v>
+      </c>
+      <c r="G74" t="n">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" t="n">
+        <v>460374.38</v>
+      </c>
+      <c r="C75" t="n">
+        <v>78.59</v>
+      </c>
+      <c r="D75" t="n">
+        <v>945146.86</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2808.52</v>
+      </c>
+      <c r="F75" t="n">
+        <v>188589.38</v>
+      </c>
+      <c r="G75" t="n">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" t="n">
+        <v>460445.57</v>
+      </c>
+      <c r="C76" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="D76" t="n">
+        <v>945503.9399999999</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3775.55</v>
+      </c>
+      <c r="F76" t="n">
+        <v>188593.4</v>
+      </c>
+      <c r="G76" t="n">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" t="n">
+        <v>450452.78</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="D77" t="n">
+        <v>945785.52</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3853.59</v>
+      </c>
+      <c r="F77" t="n">
+        <v>188659.18</v>
+      </c>
+      <c r="G77" t="n">
+        <v>62.04</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" t="n">
+        <v>450638.64</v>
+      </c>
+      <c r="C78" t="n">
+        <v>266.02</v>
+      </c>
+      <c r="D78" t="n">
+        <v>946298.6899999999</v>
+      </c>
+      <c r="E78" t="n">
+        <v>6744.96</v>
+      </c>
+      <c r="F78" t="n">
+        <v>188729.79</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" t="n">
+        <v>450659.89</v>
+      </c>
+      <c r="C79" t="n">
+        <v>266.05</v>
+      </c>
+      <c r="D79" t="n">
+        <v>946370.76</v>
+      </c>
+      <c r="E79" t="n">
+        <v>7142.66</v>
+      </c>
+      <c r="F79" t="n">
+        <v>188853.18</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" t="n">
+        <v>450670.2</v>
+      </c>
+      <c r="C80" t="n">
+        <v>266.16</v>
+      </c>
+      <c r="D80" t="n">
+        <v>946464.77</v>
+      </c>
+      <c r="E80" t="n">
+        <v>7725.82</v>
+      </c>
+      <c r="F80" t="n">
+        <v>188944.37</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" t="n">
+        <v>396645.05</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1715.25</v>
+      </c>
+      <c r="D81" t="n">
+        <v>898706.5</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F81" t="n">
+        <v>188974.41</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" t="n">
+        <v>391209.65</v>
+      </c>
+      <c r="C82" t="n">
+        <v>232.9</v>
+      </c>
+      <c r="D82" t="n">
+        <v>899190.42</v>
+      </c>
+      <c r="E82" t="n">
+        <v>444.08</v>
+      </c>
+      <c r="F82" t="n">
+        <v>189265.88</v>
+      </c>
+      <c r="G82" t="n">
+        <v>141.86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" t="n">
+        <v>391211.66</v>
+      </c>
+      <c r="C83" t="n">
+        <v>232.9</v>
+      </c>
+      <c r="D83" t="n">
+        <v>899371.55</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2251.43</v>
+      </c>
+      <c r="F83" t="n">
+        <v>189282.71</v>
+      </c>
+      <c r="G83" t="n">
+        <v>155.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" t="n">
+        <v>391212.91</v>
+      </c>
+      <c r="C84" t="n">
+        <v>232.9</v>
+      </c>
+      <c r="D84" t="n">
+        <v>899476.1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2731.08</v>
+      </c>
+      <c r="F84" t="n">
+        <v>189176.63</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" t="n">
+        <v>391219.64</v>
+      </c>
+      <c r="C85" t="n">
+        <v>255.19</v>
+      </c>
+      <c r="D85" t="n">
+        <v>899527.04</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3241.55</v>
+      </c>
+      <c r="F85" t="n">
+        <v>189230.03</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" t="n">
+        <v>391220.57</v>
+      </c>
+      <c r="C86" t="n">
+        <v>255.21</v>
+      </c>
+      <c r="D86" t="n">
+        <v>896267.79</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>189279.92</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" t="n">
+        <v>391261.5</v>
+      </c>
+      <c r="C87" t="n">
+        <v>448.26</v>
+      </c>
+      <c r="D87" t="n">
+        <v>896507.59</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2964.23</v>
+      </c>
+      <c r="F87" t="n">
+        <v>189338.24</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" t="n">
+        <v>391266.07</v>
+      </c>
+      <c r="C88" t="n">
+        <v>448.26</v>
+      </c>
+      <c r="D88" t="n">
+        <v>896522.5699999999</v>
+      </c>
+      <c r="E88" t="n">
+        <v>98.97</v>
+      </c>
+      <c r="F88" t="n">
+        <v>189368.95</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" t="n">
+        <v>391284.64</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1900.19</v>
+      </c>
+      <c r="D89" t="n">
+        <v>896552.3100000001</v>
+      </c>
+      <c r="E89" t="n">
+        <v>361.31</v>
+      </c>
+      <c r="F89" t="n">
+        <v>189477.86</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" t="n">
+        <v>389399.59</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D90" t="n">
+        <v>896705.72</v>
+      </c>
+      <c r="E90" t="n">
+        <v>666.2</v>
+      </c>
+      <c r="F90" t="n">
+        <v>189610.52</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" t="n">
+        <v>389668.4</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1396.28</v>
+      </c>
+      <c r="D91" t="n">
+        <v>897228.92</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1015.04</v>
+      </c>
+      <c r="F91" t="n">
+        <v>189677.76</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" t="n">
+        <v>389726.59</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1456.37</v>
+      </c>
+      <c r="D92" t="n">
+        <v>897436.79</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1124.72</v>
+      </c>
+      <c r="F92" t="n">
+        <v>189766.92</v>
+      </c>
+      <c r="G92" t="n">
+        <v>27.03</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" t="n">
+        <v>388335.15</v>
+      </c>
+      <c r="C93" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="D93" t="n">
+        <v>897745.66</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1237.07</v>
+      </c>
+      <c r="F93" t="n">
+        <v>189798.98</v>
+      </c>
+      <c r="G93" t="n">
+        <v>27.03</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" t="n">
+        <v>388355.21</v>
+      </c>
+      <c r="C94" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="D94" t="n">
+        <v>898167.23</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2015.15</v>
+      </c>
+      <c r="F94" t="n">
+        <v>189915.86</v>
+      </c>
+      <c r="G94" t="n">
+        <v>27.03</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" t="n">
+        <v>388596.92</v>
+      </c>
+      <c r="C95" t="n">
+        <v>80.45</v>
+      </c>
+      <c r="D95" t="n">
+        <v>899333.3</v>
+      </c>
+      <c r="E95" t="n">
+        <v>53.55</v>
+      </c>
+      <c r="F95" t="n">
+        <v>190027.64</v>
+      </c>
+      <c r="G95" t="n">
+        <v>46.47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" t="n">
+        <v>388623.57</v>
+      </c>
+      <c r="C96" t="n">
+        <v>334.67</v>
+      </c>
+      <c r="D96" t="n">
+        <v>899895.91</v>
+      </c>
+      <c r="E96" t="n">
+        <v>396.51</v>
+      </c>
+      <c r="F96" t="n">
+        <v>190235.8</v>
+      </c>
+      <c r="G96" t="n">
+        <v>46.47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" t="n">
+        <v>388663.57</v>
+      </c>
+      <c r="C97" t="n">
+        <v>7</v>
+      </c>
+      <c r="D97" t="n">
+        <v>899953.34</v>
+      </c>
+      <c r="E97" t="n">
+        <v>977.03</v>
+      </c>
+      <c r="F97" t="n">
+        <v>190324.36</v>
+      </c>
+      <c r="G97" t="n">
+        <v>46.47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" t="n">
+        <v>388774.49</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D98" t="n">
+        <v>900126.09</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F98" t="n">
+        <v>190542.17</v>
+      </c>
+      <c r="G98" t="n">
+        <v>46.47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" t="n">
+        <v>388775.87</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="D99" t="n">
+        <v>900157.6</v>
+      </c>
+      <c r="E99" t="n">
+        <v>109.83</v>
+      </c>
+      <c r="F99" t="n">
+        <v>190585.77</v>
+      </c>
+      <c r="G99" t="n">
+        <v>46.47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" t="n">
+        <v>388797.03</v>
+      </c>
+      <c r="C100" t="n">
+        <v>233.13</v>
+      </c>
+      <c r="D100" t="n">
+        <v>900221.4</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1476.63</v>
+      </c>
+      <c r="F100" t="n">
+        <v>190615.36</v>
+      </c>
+      <c r="G100" t="n">
+        <v>46.47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" t="n">
+        <v>388797.83</v>
+      </c>
+      <c r="C101" t="n">
+        <v>233.13</v>
+      </c>
+      <c r="D101" t="n">
+        <v>900259.15</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1920.21</v>
+      </c>
+      <c r="F101" t="n">
+        <v>190630.59</v>
+      </c>
+      <c r="G101" t="n">
+        <v>46.47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" t="n">
+        <v>388816.25</v>
+      </c>
+      <c r="C102" t="n">
+        <v>233.14</v>
+      </c>
+      <c r="D102" t="n">
+        <v>900373.47</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2808.41</v>
+      </c>
+      <c r="F102" t="n">
+        <v>190651.28</v>
+      </c>
+      <c r="G102" t="n">
+        <v>46.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
